--- a/Students_API/students API TestCases.xlsx
+++ b/Students_API/students API TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aiubedu60714-my.sharepoint.com/personal/20-43240-1_student_aiub_edu/Documents/GitHub/PostmanAPITesting/Students_API/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="8_{AFE7E783-616E-4D7C-B867-6D70D9A1DAA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A48F667-AF85-4950-A09F-91D9A1C4DB2A}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="8_{AFE7E783-616E-4D7C-B867-6D70D9A1DAA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{214D1E05-88C0-4984-AFDB-45096739043B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{445F0A25-27DE-46C7-9162-7B7206F4B344}"/>
   </bookViews>
@@ -754,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5773B98F-FAFB-444E-8DF2-FC72B45EBFA4}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,7 +930,9 @@
       <c r="G6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="14"/>
+      <c r="H6" s="14">
+        <v>200</v>
+      </c>
       <c r="I6" s="15"/>
     </row>
   </sheetData>
